--- a/ChangeLog.xlsx
+++ b/ChangeLog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
   <si>
     <t>(pyenv) alfons:tensorflow-sdprop yama3$ find . -name "*.h" -exec grep -l Adam {} \;</t>
   </si>
@@ -227,16 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>少ない。「７」がなにか調べる</t>
-    <rPh sb="0" eb="1">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SDProp 実装進捗</t>
     <rPh sb="7" eb="9">
       <t>ジッソウ</t>
@@ -247,16 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>多い。OPを提供</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -373,6 +353,60 @@
     <t>John Adamsに含まれていた</t>
     <rPh sb="11" eb="12">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多い。OPを提供のみ。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP変数: var ms mom lr rho momentum epsilon grad (indice &lt;- Sparceのみ)</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mom = mom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ms = mu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var = var</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rho = gamma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>momentum = (none)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lr = lr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少ない。「6」は引数の数？</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -931,10 +965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -945,7 +979,7 @@
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>58</v>
       </c>
@@ -956,15 +990,15 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -974,13 +1008,16 @@
       <c r="D3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -994,10 +1031,10 @@
         <v>56</v>
       </c>
       <c r="E5" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1007,8 +1044,11 @@
       <c r="D6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1022,24 +1062,24 @@
         <v>52</v>
       </c>
       <c r="E7" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1047,51 +1087,63 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1101,19 +1153,25 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1132,13 +1190,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1">
@@ -1146,13 +1204,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1">
@@ -1160,13 +1218,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1">
@@ -1174,13 +1232,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1188,10 +1246,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1199,18 +1260,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -1219,12 +1283,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
@@ -1233,12 +1297,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -1252,13 +1316,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1">
@@ -1266,13 +1330,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1">
@@ -1280,13 +1344,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1">
@@ -1294,21 +1358,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
@@ -1322,13 +1386,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1">
@@ -1336,13 +1400,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1">
@@ -1350,13 +1414,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1">
@@ -1364,13 +1428,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1">
@@ -1378,13 +1442,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1">
@@ -1392,21 +1456,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -1420,13 +1484,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1">
@@ -1434,13 +1498,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1">
@@ -1448,13 +1512,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1">
@@ -1462,13 +1526,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1">
@@ -1476,13 +1540,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1">
@@ -1490,13 +1554,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1">
@@ -1504,16 +1568,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:5" hidden="1">
@@ -1521,13 +1585,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1">
@@ -1535,13 +1599,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1">
@@ -1549,13 +1613,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1">
@@ -1563,13 +1627,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1">
@@ -1577,13 +1641,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1">
@@ -1591,13 +1655,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1">
@@ -1605,13 +1669,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1619,10 +1683,43 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>52</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1631,6 +1728,14 @@
       <filters blank="1">
         <filter val="○"/>
         <filter val="○コメントアウトしてある"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="0%"/>
+        <filter val="10%"/>
+        <filter val="5%"/>
+        <filter val="90%"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ChangeLog.xlsx
+++ b/ChangeLog.xlsx
@@ -968,7 +968,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1110,7 +1110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1728,14 +1728,6 @@
       <filters blank="1">
         <filter val="○"/>
         <filter val="○コメントアウトしてある"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="0%"/>
-        <filter val="10%"/>
-        <filter val="5%"/>
-        <filter val="90%"/>
       </filters>
     </filterColumn>
   </autoFilter>
